--- a/Lista dos PCA.xlsx
+++ b/Lista dos PCA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\DEV\GestaoPropostas2\GestaoPropostas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\GestaoPropostas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE1FB2A6-79F0-4FB2-B38E-A7D8A009D699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9116C9-E149-4BF9-AA6D-8B75392EB70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C09D59C6-4EFF-41D5-9031-D34F88CE7586}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C09D59C6-4EFF-41D5-9031-D34F88CE7586}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -29,39 +29,12 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="144">
-  <si>
-    <t xml:space="preserve"> Nr. do PCA </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Grau de Prioridade </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Demanda da Unidade </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Justificativa </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Valor Estimado </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Data Prevista da Contratação </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Trata-se de </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Investimento ou Custeio </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="145">
   <si>
     <t xml:space="preserve"> PCA 236 </t>
   </si>
@@ -469,6 +442,33 @@
   </si>
   <si>
     <t xml:space="preserve"> Disponibilizar mecanismo automatizado e seguro para comunicação de custas processuais finais, assegurando eficiência, tempestividade e conformidade nos trâmites de cobrança e encerramento processual, em alinhamento às boas práticas de gestão financeira e processual do TJGO. </t>
+  </si>
+  <si>
+    <t>pca_id</t>
+  </si>
+  <si>
+    <t>codigo_demanda</t>
+  </si>
+  <si>
+    <t>descricao</t>
+  </si>
+  <si>
+    <t>justificativa_tecnica</t>
+  </si>
+  <si>
+    <t>valor_estimado</t>
+  </si>
+  <si>
+    <t>data_prevista_contratacao</t>
+  </si>
+  <si>
+    <t>tipo_contratacao</t>
+  </si>
+  <si>
+    <t>natureza_despesa</t>
+  </si>
+  <si>
+    <t>justificativa_administrativa</t>
   </si>
 </sst>
 </file>
@@ -528,9 +528,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -568,7 +568,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -674,7 +674,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -816,7 +816,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -824,1139 +824,1268 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C693073-72FC-416F-84C5-C8EE6F64617F}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E43"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F2" s="1">
+        <v>9434.7000000000007</v>
+      </c>
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F3" s="1">
+        <v>2571660</v>
+      </c>
+      <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1">
-        <v>9434.7000000000007</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2571660</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>18320.400000000001</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
       </c>
       <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>3390949.42</v>
       </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1">
         <v>557542.93999999994</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1369658.3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1">
+        <v>388202.79</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="F9" s="1">
+        <v>1659777</v>
+      </c>
+      <c r="G9" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1369658.3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="H9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
         <v>29</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E10" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="1">
-        <v>388202.79</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="F10" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="G10" t="s">
         <v>31</v>
       </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="1">
-        <v>1659777</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
         <v>35</v>
       </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="E11" t="s">
         <v>36</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="F11" s="1">
+        <v>3790273.08</v>
+      </c>
+      <c r="G11" t="s">
         <v>37</v>
       </c>
-      <c r="D10" t="s">
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="1">
-        <v>3000000</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
         <v>39</v>
       </c>
-      <c r="G10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="1">
-        <v>3790273.08</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1">
         <v>20000</v>
-      </c>
-      <c r="F12" t="s">
-        <v>48</v>
       </c>
       <c r="G12" t="s">
         <v>40</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="1">
+        <v>19000000</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="1">
+        <v>7700000</v>
+      </c>
+      <c r="G14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
         <v>49</v>
       </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="F15" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="G15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
         <v>50</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C16" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="1">
-        <v>19000000</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D16" t="s">
         <v>52</v>
       </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="E16" t="s">
         <v>53</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F16" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="1">
-        <v>7700000</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
         <v>55</v>
       </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="E17" t="s">
         <v>56</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F17" s="1">
+        <v>9000000</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="1">
-        <v>4000000</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
         <v>58</v>
       </c>
-      <c r="B16" t="s">
+      <c r="E18" t="s">
         <v>59</v>
       </c>
-      <c r="C16" t="s">
+      <c r="F18" s="1">
+        <v>12000000</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
         <v>60</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="1">
-        <v>100000</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="1">
+        <v>180000</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2213903.1</v>
+      </c>
+      <c r="G20" t="s">
         <v>31</v>
       </c>
-      <c r="G16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="1">
-        <v>9000000</v>
-      </c>
-      <c r="F17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="H20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
         <v>66</v>
       </c>
-      <c r="D18" t="s">
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="1">
-        <v>12000000</v>
-      </c>
-      <c r="F18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="E21" t="s">
         <v>68</v>
       </c>
-      <c r="B19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="F21" s="1">
+        <v>1828260.02</v>
+      </c>
+      <c r="G21" t="s">
         <v>69</v>
       </c>
-      <c r="D19" t="s">
+      <c r="H21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="1">
-        <v>180000</v>
-      </c>
-      <c r="F19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" t="s">
         <v>71</v>
       </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="E22" t="s">
         <v>72</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F22" s="1">
+        <v>10917500</v>
+      </c>
+      <c r="G22" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="1">
-        <v>2213903.1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="H22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
         <v>74</v>
       </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
         <v>75</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1250000</v>
+      </c>
+      <c r="G23" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="1">
-        <v>1828260.02</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="H23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
         <v>77</v>
       </c>
-      <c r="G21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
         <v>78</v>
       </c>
-      <c r="B22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="E24" t="s">
         <v>79</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F24" s="1">
+        <v>30000000</v>
+      </c>
+      <c r="G24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="1">
-        <v>10917500</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
         <v>81</v>
       </c>
-      <c r="G22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="E25" t="s">
         <v>82</v>
       </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="F25" s="1">
+        <v>700000</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
         <v>83</v>
       </c>
-      <c r="D23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1250000</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
         <v>84</v>
       </c>
-      <c r="G23" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="E26" t="s">
         <v>85</v>
       </c>
-      <c r="B24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="F26" s="1">
+        <v>384000</v>
+      </c>
+      <c r="G26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
         <v>86</v>
       </c>
-      <c r="D24" t="s">
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="1">
-        <v>30000000</v>
-      </c>
-      <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="E27" t="s">
         <v>88</v>
       </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" s="1">
-        <v>700000</v>
-      </c>
-      <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>91</v>
-      </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="1">
-        <v>384000</v>
-      </c>
-      <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>5000000</v>
-      </c>
-      <c r="F27" t="s">
-        <v>48</v>
       </c>
       <c r="G27" t="s">
         <v>40</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>97</v>
+        <v>32</v>
+      </c>
+      <c r="I27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
-      </c>
-      <c r="E28" s="1">
+        <v>90</v>
+      </c>
+      <c r="E28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="1">
         <v>20000000</v>
-      </c>
-      <c r="F28" t="s">
-        <v>48</v>
       </c>
       <c r="G28" t="s">
         <v>40</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>100</v>
+        <v>32</v>
+      </c>
+      <c r="I28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="1">
+        <v>93</v>
+      </c>
+      <c r="E29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" s="1">
         <v>200000</v>
       </c>
-      <c r="F29" t="s">
-        <v>81</v>
-      </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>103</v>
+        <v>32</v>
+      </c>
+      <c r="I29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" s="1">
+        <v>96</v>
+      </c>
+      <c r="E30" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="1">
         <v>200590</v>
-      </c>
-      <c r="F30" t="s">
-        <v>21</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="1">
+        <v>15000000</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" s="1">
+        <v>20400</v>
+      </c>
+      <c r="G32" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" t="s">
         <v>106</v>
       </c>
-      <c r="B31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="F33" s="1">
+        <v>251998.5</v>
+      </c>
+      <c r="G33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
         <v>107</v>
       </c>
-      <c r="D31" t="s">
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
         <v>108</v>
       </c>
-      <c r="E31" s="1">
-        <v>15000000</v>
-      </c>
-      <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="E34" t="s">
         <v>109</v>
       </c>
-      <c r="B32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="F34" s="1">
+        <v>7722</v>
+      </c>
+      <c r="G34" t="s">
+        <v>76</v>
+      </c>
+      <c r="H34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
         <v>110</v>
       </c>
-      <c r="D32" t="s">
+      <c r="C35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" t="s">
         <v>111</v>
       </c>
-      <c r="E32" s="1">
-        <v>20400</v>
-      </c>
-      <c r="F32" t="s">
-        <v>81</v>
-      </c>
-      <c r="G32" t="s">
-        <v>40</v>
-      </c>
-      <c r="H32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="E35" t="s">
         <v>112</v>
       </c>
-      <c r="B33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="F35" s="1">
+        <v>300000</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
         <v>113</v>
       </c>
-      <c r="D33" t="s">
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
         <v>114</v>
       </c>
-      <c r="E33" s="1">
-        <v>251998.5</v>
-      </c>
-      <c r="F33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" t="s">
-        <v>40</v>
-      </c>
-      <c r="H33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="E36" t="s">
         <v>115</v>
       </c>
-      <c r="B34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" t="s">
-        <v>116</v>
-      </c>
-      <c r="D34" t="s">
-        <v>117</v>
-      </c>
-      <c r="E34" s="1">
-        <v>7722</v>
-      </c>
-      <c r="F34" t="s">
-        <v>84</v>
-      </c>
-      <c r="G34" t="s">
-        <v>40</v>
-      </c>
-      <c r="H34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>118</v>
-      </c>
-      <c r="B35" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" t="s">
-        <v>119</v>
-      </c>
-      <c r="D35" t="s">
-        <v>120</v>
-      </c>
-      <c r="E35" s="1">
-        <v>300000</v>
-      </c>
-      <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s">
-        <v>40</v>
-      </c>
-      <c r="H35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>121</v>
-      </c>
-      <c r="B36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" t="s">
-        <v>122</v>
-      </c>
-      <c r="D36" t="s">
-        <v>123</v>
-      </c>
-      <c r="E36" s="1">
+      <c r="F36" s="1">
         <v>543520.92000000004</v>
-      </c>
-      <c r="F36" t="s">
-        <v>48</v>
       </c>
       <c r="G36" t="s">
         <v>40</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" t="s">
+        <v>118</v>
+      </c>
+      <c r="F37" s="1">
+        <v>4198269.2699999996</v>
+      </c>
+      <c r="G37" t="s">
+        <v>73</v>
+      </c>
+      <c r="H37" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" t="s">
+        <v>121</v>
+      </c>
+      <c r="F38" s="1">
+        <v>8355274.0800000001</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s">
+        <v>5</v>
+      </c>
+      <c r="I38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>120</v>
+      </c>
+      <c r="E39" t="s">
+        <v>123</v>
+      </c>
+      <c r="F39" s="1">
+        <v>8355274.0800000001</v>
+      </c>
+      <c r="G39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
         <v>124</v>
       </c>
-      <c r="B37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
         <v>125</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E40" t="s">
         <v>126</v>
       </c>
-      <c r="E37" s="1">
-        <v>4198269.2699999996</v>
-      </c>
-      <c r="F37" t="s">
-        <v>81</v>
-      </c>
-      <c r="G37" t="s">
-        <v>40</v>
-      </c>
-      <c r="H37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="F40" s="1">
+        <v>2716400</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
         <v>127</v>
       </c>
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="C41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" t="s">
         <v>128</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E41" t="s">
         <v>129</v>
       </c>
-      <c r="E38" s="1">
-        <v>8355274.0800000001</v>
-      </c>
-      <c r="F38" t="s">
-        <v>35</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="F41" s="1">
+        <v>850000</v>
+      </c>
+      <c r="G41" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" t="s">
+        <v>131</v>
+      </c>
+      <c r="E42" t="s">
+        <v>132</v>
+      </c>
+      <c r="F42" s="1">
+        <v>800000</v>
+      </c>
+      <c r="G42" t="s">
         <v>13</v>
       </c>
-      <c r="H38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>130</v>
-      </c>
-      <c r="B39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" t="s">
-        <v>128</v>
-      </c>
-      <c r="D39" t="s">
-        <v>131</v>
-      </c>
-      <c r="E39" s="1">
-        <v>8355274.0800000001</v>
-      </c>
-      <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>40</v>
-      </c>
-      <c r="H39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>132</v>
-      </c>
-      <c r="B40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="H42" t="s">
+        <v>32</v>
+      </c>
+      <c r="I42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
         <v>133</v>
       </c>
-      <c r="D40" t="s">
+      <c r="C43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" t="s">
         <v>134</v>
       </c>
-      <c r="E40" s="1">
-        <v>2716400</v>
-      </c>
-      <c r="F40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G40" t="s">
-        <v>40</v>
-      </c>
-      <c r="H40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="E43" t="s">
         <v>135</v>
       </c>
-      <c r="B41" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" t="s">
-        <v>136</v>
-      </c>
-      <c r="D41" t="s">
-        <v>137</v>
-      </c>
-      <c r="E41" s="1">
-        <v>850000</v>
-      </c>
-      <c r="F41" t="s">
-        <v>45</v>
-      </c>
-      <c r="G41" t="s">
-        <v>40</v>
-      </c>
-      <c r="H41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>138</v>
-      </c>
-      <c r="B42" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" t="s">
-        <v>139</v>
-      </c>
-      <c r="D42" t="s">
-        <v>140</v>
-      </c>
-      <c r="E42" s="1">
-        <v>800000</v>
-      </c>
-      <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" t="s">
-        <v>40</v>
-      </c>
-      <c r="H42" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>141</v>
-      </c>
-      <c r="B43" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" t="s">
-        <v>142</v>
-      </c>
-      <c r="D43" t="s">
-        <v>143</v>
-      </c>
-      <c r="E43" s="1">
+      <c r="F43" s="1">
         <v>200000</v>
       </c>
-      <c r="F43" t="s">
-        <v>84</v>
-      </c>
       <c r="G43" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="I43" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
